--- a/git_log_output.xlsx
+++ b/git_log_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thu Nov 23 11</t>
+          <t>Thu Nov 23 12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+          <t xml:space="preserve">--- a/history.py
++++ b/history.py
+@@ -3,7 +3,7 @@ import openpyxl
+ def git_log_to_excel(output_file):
+     # Run git log -p command and capture the output
+-    git_log_output = subprocess.check_output(['git', 'log', '-p'], text=True)
++    git_log_output = subprocess.check_output(['','git', 'log', '-p'], text=True)
+     # Split the log into individual commits
+     commits = git_log_output.split('\ncommit ')
 </t>
         </is>
       </c>
@@ -468,6 +476,78 @@
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..6f16acb
 --- /dev/null
@@ -478,18 +558,18 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Thu Nov 23 11</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..31d0152
 Binary files /dev/null and b/git_log_output.xlsx differ
@@ -595,18 +675,18 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Wed Nov 22 11</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -621,18 +701,18 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -646,18 +726,18 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -669,18 +749,18 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -697,18 +777,18 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Wed Nov 22 09</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -727,18 +807,18 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -752,18 +832,18 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -777,18 +857,18 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">index 9b6722d..0000000
 Binary files a/.package.json.swp and /dev/null differ
@@ -809,18 +889,18 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..9b6722d
 Binary files /dev/null and b/.package.json.swp differ
@@ -828,18 +908,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/package.json
 +++ b/package.json
@@ -855,18 +935,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -881,18 +961,18 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -920,18 +1000,18 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/package.json
 +++ b/package.json
@@ -953,18 +1033,18 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -978,18 +1058,18 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1004,18 +1084,18 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1030,18 +1110,18 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1054,18 +1134,18 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1081,18 +1161,18 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1108,18 +1188,18 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1139,18 +1219,18 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/main.py
 +++ b/main.py
@@ -1177,18 +1257,18 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Tue Nov 21 16</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..c72d4c0
 --- /dev/null
@@ -1302,18 +1382,18 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Tue Nov 21 16</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1330,18 +1410,18 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Tue Nov 21 14</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1357,18 +1437,18 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Tue Nov 21 14</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1396,18 +1476,18 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Tue Nov 21 11</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..6bb7e3d
 --- /dev/null
@@ -1418,18 +1498,18 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Tue Apr 25 09</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..874da14
 Binary files /dev/null and b/readme/Detection_Rules_Engine.png differ
@@ -1437,18 +1517,18 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Mon Apr 24 17</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..3d91f62
 --- /dev/null
@@ -1497,18 +1577,18 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Mon Feb 6 11</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..633269a
 Binary files /dev/null and b/readme/Picture1.png differ
@@ -1536,18 +1616,18 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">index e3cd4ac..0000000
 Binary files a/gns3.zip and /dev/null differ
@@ -1555,18 +1635,18 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..f5b93a1
 --- /dev/null
@@ -1640,18 +1720,18 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..e3cd4ac
 Binary files /dev/null and b/gns3.zip differ

--- a/git_log_output.xlsx
+++ b/git_log_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,62 @@
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">index e5da417..0000000
+--- "a/hhh.txt\302\264~"
++++ /dev/null
+@@ -1,2 +0,0 @@
+-agora funciona 
+-Ghhh
+diff --git a/server.js b/server.js
+index 4722a55..b147323 100644
+--- a/server.js
++++ b/server.js
+@@ -8,8 +8,8 @@ const PORT = 8 ;ssss
+ // App
+ const app = express();
+ app.get('/', function (req, res) {
+-  res.send('Heldlo wwNodddesssssshssddddds.js!!!\n');
++  res.send('Heldlo wwNodddess-Teste-sssshssddddds.js!!!\n');
+ });
+ app.listen(PORT);
+-console.log('Running sson htstssp://localsshost:' + PORT);
+\ No newline at end of file
++console.log('Running sson htstssp://localsshost:' + PORT);
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/README.md
 +++ b/README.md
@@ -465,42 +521,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -513,6 +533,42 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/README.md
 +++ b/README.md
@@ -529,42 +585,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
@@ -577,6 +597,42 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 14</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..e5da417
 --- /dev/null
@@ -588,42 +644,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 14</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
@@ -632,7 +652,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Thu Nov 23 12</t>
+          <t>Thu Nov 23 14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -650,7 +670,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thu Nov 23 12</t>
+          <t>Thu Nov 23 14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -672,6 +692,42 @@
         </is>
       </c>
       <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
 diff --git a/hhh.txt b/hhh.txt
@@ -704,18 +760,18 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Thu Nov 23 12</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/history.py
 +++ b/history.py
@@ -730,18 +786,18 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Thu Nov 23 12</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/history.py
 +++ b/history.py
@@ -756,42 +812,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 11</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Thu Nov 23 11</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
-</t>
-        </is>
-      </c>
-    </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
@@ -840,6 +860,42 @@
         </is>
       </c>
       <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Binary files a/git_log_output.xlsx and b/git_log_output.xlsx differ
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Thu Nov 23 11</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..6f16acb
 --- /dev/null
@@ -850,18 +906,18 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Thu Nov 23 11</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..31d0152
 Binary files /dev/null and b/git_log_output.xlsx differ
@@ -967,18 +1023,18 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wed Nov 22 11</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -993,18 +1049,18 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1018,18 +1074,18 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Your Name &lt;you@example.com&gt;</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1041,18 +1097,18 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Wed Nov 22 10</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1069,18 +1125,18 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Wed Nov 22 09</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1099,18 +1155,18 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1124,18 +1180,18 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1149,18 +1205,18 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">index 9b6722d..0000000
 Binary files a/.package.json.swp and /dev/null differ
@@ -1181,18 +1237,18 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..9b6722d
 Binary files /dev/null and b/.package.json.swp differ
@@ -1200,18 +1256,18 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/package.json
 +++ b/package.json
@@ -1227,18 +1283,18 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1253,18 +1309,18 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Tue Nov 21 22</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1292,18 +1348,18 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/package.json
 +++ b/package.json
@@ -1325,18 +1381,18 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1350,18 +1406,18 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1376,18 +1432,18 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Tue Nov 21 21</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1402,18 +1458,18 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1426,18 +1482,18 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1453,18 +1509,18 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1480,18 +1536,18 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1511,18 +1567,18 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Tue Nov 21 17</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/main.py
 +++ b/main.py
@@ -1549,18 +1605,18 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Tue Nov 21 16</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..c72d4c0
 --- /dev/null
@@ -1674,18 +1730,18 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Tue Nov 21 16</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1702,18 +1758,18 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Tue Nov 21 14</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/server.js
 +++ b/server.js
@@ -1729,18 +1785,18 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Tue Nov 21 14</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">--- a/file.txt
 +++ b/file.txt
@@ -1768,18 +1824,18 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>root &lt;gtavares@visionware.pt&gt;</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>root &lt;gtavares@visionware.pt&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Tue Nov 21 11</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..6bb7e3d
 --- /dev/null
@@ -1790,18 +1846,18 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Tue Apr 25 09</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..874da14
 Binary files /dev/null and b/readme/Detection_Rules_Engine.png differ
@@ -1809,18 +1865,18 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Mon Apr 24 17</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..3d91f62
 --- /dev/null
@@ -1869,18 +1925,18 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>Mon Feb 6 11</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..633269a
 Binary files /dev/null and b/readme/Picture1.png differ
@@ -1908,18 +1964,18 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">index e3cd4ac..0000000
 Binary files a/gns3.zip and /dev/null differ
@@ -1927,18 +1983,18 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..f5b93a1
 --- /dev/null
@@ -2012,18 +2068,18 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>a2480 &lt;87015775+a2480@users.noreply.github.com&gt;</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Mon Jun 20 10</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">index 0000000..e3cd4ac
 Binary files /dev/null and b/gns3.zip differ
